--- a/ESP32-DRONE/BOM.xlsx
+++ b/ESP32-DRONE/BOM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B3C30D-0F87-4E39-A6A6-7DF160A9CAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664BCAE1-E5CC-4361-A70E-0286F34156FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5355" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Layout" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Item</t>
   </si>
@@ -142,6 +143,111 @@
   </si>
   <si>
     <t>https://esc-configurator.com/</t>
+  </si>
+  <si>
+    <t>ESP32 pin</t>
+  </si>
+  <si>
+    <t>MPU6050</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Overige</t>
+  </si>
+  <si>
+    <t>DOIT ESP32 DEVKIT V1</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>TXD</t>
+  </si>
+  <si>
+    <t>RXD</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>TX2</t>
+  </si>
+  <si>
+    <t>RX2</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>3,3V</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
   </si>
 </sst>
 </file>
@@ -149,7 +255,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -182,8 +288,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,10 +319,103 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6567B623-5342-6D2A-D6C5-6352347104DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11416393" y="190500"/>
+          <a:ext cx="7946571" cy="3878037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>151349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9BAB0F-D093-39B5-0E0F-BE7988D7FFE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11363326" y="4381501"/>
+          <a:ext cx="3409950" cy="3199348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:H13" totalsRowShown="0">
-  <autoFilter ref="A2:H13" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:I13" totalsRowShown="0">
+  <autoFilter ref="A2:I13" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D75D961B-5186-422B-AE74-CF444E4551CF}" name="Item"/>
     <tableColumn id="2" xr3:uid="{9E7184A8-59C3-4671-A01E-638D631BC46A}" name="Leverancier"/>
     <tableColumn id="3" xr3:uid="{99383631-789D-4E32-BA6E-5CE5E4CC58E9}" name="Aantal"/>
@@ -227,6 +426,18 @@
     <tableColumn id="6" xr3:uid="{28F035E5-2E9E-40F4-A66E-0765BED02FC0}" name="Besteld" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{8019E6DF-E30D-4DB8-8709-575C45A4A9D0}" name="Link"/>
     <tableColumn id="8" xr3:uid="{05CD4EA6-BFEB-49AD-A665-20370EBE6C91}" name="Sources"/>
+    <tableColumn id="9" xr3:uid="{785E4972-5346-453B-9479-E8F5DA371B14}" name="Overige"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38B291B0-0495-4888-BB39-C69054B803E4}" name="Tabel2" displayName="Tabel2" ref="A1:B30" totalsRowShown="0">
+  <autoFilter ref="A1:B30" xr:uid="{38B291B0-0495-4888-BB39-C69054B803E4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3A57D1F5-7C36-431E-AC5A-4D19C204CC14}" name="ESP32 pin"/>
+    <tableColumn id="2" xr3:uid="{D65486AE-B255-4541-91FD-08EEE506DE13}" name="MPU6050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,15 +721,16 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.7109375" customWidth="1"/>
     <col min="8" max="8" width="84.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
         <v>173.9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -543,8 +755,11 @@
       <c r="H2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -570,8 +785,11 @@
       <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -598,7 +816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -622,7 +840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -636,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1">
-        <f>SUM(C6*D6)</f>
+        <f t="shared" ref="E6:E13" si="1">SUM(C6*D6)</f>
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -646,7 +864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -660,7 +878,7 @@
         <v>23.5</v>
       </c>
       <c r="E7" s="1">
-        <f>SUM(C7*D7)</f>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -670,7 +888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -684,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <f>SUM(C8*D8)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -694,7 +912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -708,7 +926,7 @@
         <v>1.25</v>
       </c>
       <c r="E9" s="1">
-        <f>SUM(C9*D9)</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -718,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -732,7 +950,7 @@
         <v>1.25</v>
       </c>
       <c r="E10" s="1">
-        <f>SUM(C10*D10)</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -742,14 +960,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
-        <f>SUM(C11*D11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -763,14 +981,14 @@
         <v>52.95</v>
       </c>
       <c r="E12" s="1">
-        <f>SUM(C12*D12)</f>
+        <f t="shared" si="1"/>
         <v>52.95</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -784,7 +1002,7 @@
         <v>49.95</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM(C13*D13)</f>
+        <f t="shared" si="1"/>
         <v>49.95</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -804,8 +1022,197 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70605F78-30C8-4C69-BEBF-95ED07BC628B}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ESP32-DRONE/BOM.xlsx
+++ b/ESP32-DRONE/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ESP32-DRONE\ESP32-DRONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664BCAE1-E5CC-4361-A70E-0286F34156FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34836EF1-C35A-4E16-9DA2-B01564CD10F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Item</t>
   </si>
@@ -81,9 +81,6 @@
     <t>0,1mm 0,33m draad zwart</t>
   </si>
   <si>
-    <t>T-Motor Velox V45A Lite 4in1 ESC</t>
-  </si>
-  <si>
     <t>Besteld</t>
   </si>
   <si>
@@ -130,18 +127,12 @@
   </si>
   <si>
     <t>Sources</t>
-  </si>
-  <si>
-    <t>https://www.speedybee.com/speedybee-bls-60a-30x30-4-in-1-esc/</t>
   </si>
   <si>
     <t>https://github.com/espressif/arduino-esp32
 https://docs.espressif.com/projects/arduino-esp32/en/latest/installing.html</t>
   </si>
   <si>
-    <t>https://randomnerdtutorials.com/esp32-mpu-6050-accelerometer-gyroscope-arduino/</t>
-  </si>
-  <si>
     <t>https://esc-configurator.com/</t>
   </si>
   <si>
@@ -248,6 +239,66 @@
   </si>
   <si>
     <t>SDA</t>
+  </si>
+  <si>
+    <t>https://wiki.dfrobot.com/TOF_IR_Distance_Sensor_0.2_12m_SKU_SEN0413</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">240Pcs 24 Soorten Verschillende Elektrolytische Condensatoren </t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/gp/product/B07KC99W2K/ref=ox_sc_act_title_1?smid=A1K7SKCGS0995G&amp;psc=1</t>
+  </si>
+  <si>
+    <t>JST-XH 3S verlengkabel voor evenwichtskabel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/gp/product/B07PX37XX5/ref=ox_sc_act_title_2?smid=A2BZ449VOZCMJ2&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>0.1f nodig voor spanningsverdeler</t>
+  </si>
+  <si>
+    <t>Voor spanningsverdeler</t>
+  </si>
+  <si>
+    <t>AZDelivery 3 x Ultrasone Module</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/gp/product/B072N473HD/ref=ox_sc_act_title_3?smid=A1X7QLRQH87QA3&amp;th=1</t>
+  </si>
+  <si>
+    <t>ELEGOO 3 Stuks Breadboard 830 Punt Soldeerloos</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/gp/product/B01MCRZFE5/ref=ox_sc_act_title_4?smid=AZF7WYXU5ZANW&amp;psc=1</t>
+  </si>
+  <si>
+    <t>ATGM336H GPS Module</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/nl/communicatie-en-signalen/draadloos/gps/modules/atgm336h-gps-module</t>
+  </si>
+  <si>
+    <t>https://randomnerdtutorials.com/esp32-neo-6m-gps-module-arduino/</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/67549e59-2a60-8001-a7a9-a2b217968acf</t>
+  </si>
+  <si>
+    <t>https://randomnerdtutorials.com/esp32-cam-ai-thinker-pinout/</t>
+  </si>
+  <si>
+    <t>Kolom1</t>
   </si>
 </sst>
 </file>
@@ -257,10 +308,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,10 +342,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -298,8 +358,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -413,9 +475,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:I13" totalsRowShown="0">
-  <autoFilter ref="A2:I13" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}" name="Tabel1" displayName="Tabel1" ref="A2:K20" totalsRowShown="0">
+  <autoFilter ref="A2:K20" xr:uid="{3D11C801-3C86-4F2B-AFDA-7808F466C051}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D75D961B-5186-422B-AE74-CF444E4551CF}" name="Item"/>
     <tableColumn id="2" xr3:uid="{9E7184A8-59C3-4671-A01E-638D631BC46A}" name="Leverancier"/>
     <tableColumn id="3" xr3:uid="{99383631-789D-4E32-BA6E-5CE5E4CC58E9}" name="Aantal"/>
@@ -427,6 +489,8 @@
     <tableColumn id="7" xr3:uid="{8019E6DF-E30D-4DB8-8709-575C45A4A9D0}" name="Link"/>
     <tableColumn id="8" xr3:uid="{05CD4EA6-BFEB-49AD-A665-20370EBE6C91}" name="Sources"/>
     <tableColumn id="9" xr3:uid="{785E4972-5346-453B-9479-E8F5DA371B14}" name="Overige"/>
+    <tableColumn id="10" xr3:uid="{AF153F91-9F48-41B2-ADC7-CAA87C3512D6}" name="Notes"/>
+    <tableColumn id="11" xr3:uid="{AF4055CA-2FDB-48A4-AD3D-40C19D5EAF2B}" name="Kolom1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -706,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,15 +786,17 @@
     <col min="7" max="7" width="45.7109375" customWidth="1"/>
     <col min="8" max="8" width="84.140625" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2">
         <f>SUM(Tabel1[Totaal prijs])</f>
-        <v>173.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>166.92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -747,19 +813,25 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -777,19 +849,19 @@
         <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -807,16 +879,16 @@
         <v>8.5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -834,13 +906,16 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -854,17 +929,26 @@
         <v>11</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E13" si="1">SUM(C6*D6)</f>
+        <f t="shared" ref="E6:E20" si="1">SUM(C6*D6)</f>
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -882,13 +966,16 @@
         <v>23.5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -906,13 +993,16 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -930,13 +1020,16 @@
         <v>1.25</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -954,77 +1047,227 @@
         <v>1.25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
+        <f>SUM(C11*D11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <f>SUM(C12*D12)</f>
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f>SUM(C13*D13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <f>SUM(C14*D14)</f>
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>7.99</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(C15*D15)</f>
+        <v>7.99</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>5.99</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(C16*D16)</f>
+        <v>5.99</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>9.99</v>
+      </c>
+      <c r="E17" s="1">
+        <f>SUM(C17*D17)</f>
+        <v>9.99</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f>SUM(C18*D18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>52.95</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>52.95</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="D20">
         <v>49.95</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="1"/>
         <v>49.95</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{E9EF2D95-81B5-4EA1-89C4-F6E1B1868145}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1033,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70605F78-30C8-4C69-BEBF-95ED07BC628B}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1045,167 +1288,167 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
